--- a/gamedata/mt/character.xlsx
+++ b/gamedata/mt/character.xlsx
@@ -474,21 +474,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row customHeight="true" ht="19" r="4">
       <c r="A4" s="1">
-        <v>3000</v>
+        <v>2001</v>
       </c>
       <c r="B4" s="1" t="str">
-        <v>骷髅战士</v>
+        <v>甲壳虫</v>
       </c>
       <c r="C4" s="1" t="str">
-        <v>装备齐全的</v>
-      </c>
-      <c r="D4" s="1">
-        <v>94</v>
-      </c>
-      <c r="E4" s="1">
-        <v>58</v>
+        <v>有着坚硬外壳的</v>
+      </c>
+      <c r="D4">
+        <v>166</v>
+      </c>
+      <c r="E4">
+        <v>35</v>
       </c>
       <c r="F4" s="1" t="b">
         <v>0</v>
@@ -496,41 +496,81 @@
     </row>
     <row r="5">
       <c r="A5" s="1">
+        <v>3000</v>
+      </c>
+      <c r="B5" s="1" t="str">
+        <v>骷髅战士</v>
+      </c>
+      <c r="C5" s="1" t="str">
+        <v>装备齐全的</v>
+      </c>
+      <c r="D5" s="1">
+        <v>94</v>
+      </c>
+      <c r="E5" s="1">
+        <v>58</v>
+      </c>
+      <c r="F5" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="19" r="6">
+      <c r="A6" s="1">
+        <v>4000</v>
+      </c>
+      <c r="B6" s="1" t="str">
+        <v>毒蜂</v>
+      </c>
+      <c r="C6" s="1" t="str">
+        <v>冷不丁冒出来蛰你一下的</v>
+      </c>
+      <c r="D6">
+        <v>37</v>
+      </c>
+      <c r="E6">
+        <v>65</v>
+      </c>
+      <c r="F6" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
         <v>5000</v>
       </c>
-      <c r="B5" s="1" t="str">
+      <c r="B7" s="1" t="str">
         <v>骷髅射手</v>
       </c>
-      <c r="C5" s="1" t="str">
+      <c r="C7" s="1" t="str">
         <v>摇摇欲坠的</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D7" s="1">
         <v>12</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E7" s="1">
         <v>94</v>
       </c>
-      <c r="F5" s="1" t="b">
+      <c r="F7" s="1" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1">
+    <row r="8">
+      <c r="A8" s="1">
         <v>6000</v>
       </c>
-      <c r="B6" s="1" t="str">
+      <c r="B8" s="1" t="str">
         <v>金色史莱姆</v>
       </c>
-      <c r="C6" s="1" t="str">
+      <c r="C8" s="1" t="str">
         <v>虽然很可爱但需要减减肥的</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D8" s="1">
         <v>241</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E8" s="1">
         <v>30</v>
       </c>
-      <c r="F6" s="1" t="b">
+      <c r="F8" s="1" t="b">
         <v>0</v>
       </c>
     </row>
